--- a/calendar_chilean_2023B.xlsx
+++ b/calendar_chilean_2023B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed268546/Dropbox/Mac/Documents/codes/SPOCK_chilean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98E2FC8-0E94-D943-8B17-54FD2B50D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C369A2-3883-5F4B-A021-D087293A5684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
+    <workbookView xWindow="25740" yWindow="580" windowWidth="25080" windowHeight="20840" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -67,17 +70,80 @@
     <t xml:space="preserve">Total </t>
   </si>
   <si>
-    <t>nights PI1</t>
+    <t>Pignata</t>
   </si>
   <si>
-    <t>nights PI2</t>
+    <t>Caceres</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>nights PI Caceres</t>
+  </si>
+  <si>
+    <t>nights PI Pignata</t>
+  </si>
+  <si>
+    <t>sent 1 week in advance</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>windy</t>
+  </si>
+  <si>
+    <t>sent 1 day in advance</t>
+  </si>
+  <si>
+    <t>sent 0 day in advance</t>
+  </si>
+  <si>
+    <t>sent 2 days in advance</t>
+  </si>
+  <si>
+    <t>sent 3 days in advance</t>
+  </si>
+  <si>
+    <t>human error</t>
+  </si>
+  <si>
+    <t>sent 1 month in advance</t>
+  </si>
+  <si>
+    <t>Camera failure</t>
+  </si>
+  <si>
+    <t>Callisto fail</t>
+  </si>
+  <si>
+    <t>TRUE + plan error seen by Peter</t>
+  </si>
+  <si>
+    <t>sent few days in advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cating up a lost night </t>
+  </si>
+  <si>
+    <t>not received in time</t>
+  </si>
+  <si>
+    <t>camera failure</t>
+  </si>
+  <si>
+    <t>weather loss</t>
+  </si>
+  <si>
+    <t>wheather loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,8 +166,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +193,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -262,32 +389,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -379,69 +484,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -451,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -480,25 +555,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -507,58 +575,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,6 +649,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCAFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -875,49 +962,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27D292-CBD1-CA4F-A514-6D8CE062AE5E}">
-  <dimension ref="A1:L216"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M20:M43"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45200</v>
       </c>
@@ -930,15 +1019,26 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="39">
-        <v>0</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45201</v>
       </c>
@@ -951,15 +1051,26 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="40">
-        <v>0</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45202</v>
       </c>
@@ -972,15 +1083,23 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="40">
-        <v>0</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45203</v>
       </c>
@@ -993,15 +1112,15 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="40">
-        <v>0</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>45204</v>
       </c>
@@ -1014,15 +1133,15 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="40">
-        <v>0</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45205</v>
       </c>
@@ -1035,15 +1154,15 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="40">
-        <v>0</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>45206</v>
       </c>
@@ -1056,15 +1175,15 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="40">
-        <v>0</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45207</v>
       </c>
@@ -1077,15 +1196,15 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="40">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>45208</v>
       </c>
@@ -1098,15 +1217,26 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="40">
-        <v>0</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45209</v>
       </c>
@@ -1119,15 +1249,23 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>45210</v>
       </c>
@@ -1140,15 +1278,26 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="40">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45211</v>
       </c>
@@ -1161,15 +1310,15 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="40">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>45212</v>
       </c>
@@ -1182,15 +1331,15 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="40">
-        <v>0</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>45213</v>
       </c>
@@ -1203,15 +1352,15 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="40">
-        <v>0</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>45214</v>
       </c>
@@ -1224,13 +1373,13 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="40">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27"/>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -1245,13 +1394,13 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="40">
-        <v>0</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="27"/>
+      <c r="E17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -1266,13 +1415,21 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="40">
-        <v>0</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="27"/>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
@@ -1287,13 +1444,21 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="40">
-        <v>0</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="27"/>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -1308,13 +1473,21 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="40">
-        <v>0</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="26"/>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -1329,13 +1502,13 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="40">
-        <v>0</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="26"/>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -1350,13 +1523,13 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="40">
-        <v>0</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="26"/>
+      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
@@ -1371,13 +1544,13 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="40">
-        <v>0</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="27"/>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
@@ -1392,13 +1565,13 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="40">
-        <v>0</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="27"/>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
@@ -1413,20 +1586,20 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="40">
-        <v>0</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="27"/>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>45224</v>
       </c>
-      <c r="B26" s="9">
-        <v>0</v>
+      <c r="B26" s="25">
+        <v>1</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -1434,20 +1607,28 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="41">
-        <v>1</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="27"/>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>45225</v>
       </c>
-      <c r="B27" s="9">
-        <v>0</v>
+      <c r="B27" s="25">
+        <v>1</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1455,20 +1636,28 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="41">
-        <v>1</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="27"/>
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>45226</v>
       </c>
-      <c r="B28" s="9">
-        <v>0</v>
+      <c r="B28" s="25">
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -1476,13 +1665,21 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="41">
-        <v>1</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="27"/>
+      <c r="E28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
@@ -1497,13 +1694,13 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="40">
-        <v>0</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="26"/>
+      <c r="E29" s="24">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -1518,13 +1715,13 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="40">
-        <v>0</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="26"/>
+      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -1539,13 +1736,13 @@
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="40">
-        <v>0</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="26"/>
+      <c r="E31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -1560,15 +1757,15 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="40">
-        <v>0</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="24">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>45231</v>
       </c>
@@ -1581,15 +1778,15 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="40">
-        <v>0</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>45232</v>
       </c>
@@ -1602,15 +1799,23 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="40">
-        <v>0</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="27"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="24">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>45233</v>
       </c>
@@ -1623,15 +1828,23 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="40">
-        <v>0</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="24">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>45234</v>
       </c>
@@ -1644,15 +1857,23 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="40">
-        <v>0</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="24">
+        <v>0</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>45235</v>
       </c>
@@ -1665,15 +1886,15 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="40">
-        <v>0</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>45236</v>
       </c>
@@ -1686,15 +1907,15 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="40">
-        <v>0</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="26"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>45237</v>
       </c>
@@ -1707,15 +1928,15 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="40">
-        <v>0</v>
-      </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>45238</v>
       </c>
@@ -1728,15 +1949,15 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="26"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E40" s="24">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>45239</v>
       </c>
@@ -1749,15 +1970,15 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="40">
-        <v>0</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="27"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E41" s="24">
+        <v>0</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>45240</v>
       </c>
@@ -1770,15 +1991,26 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="40">
-        <v>0</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>45241</v>
       </c>
@@ -1791,15 +2023,26 @@
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="40">
-        <v>0</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>45242</v>
       </c>
@@ -1812,15 +2055,26 @@
       <c r="D44" s="2">
         <v>0</v>
       </c>
-      <c r="E44" s="40">
-        <v>0</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E44" s="24">
+        <v>0</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>45243</v>
       </c>
@@ -1833,15 +2087,15 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="40">
-        <v>0</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="27"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E45" s="24">
+        <v>0</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45244</v>
       </c>
@@ -1854,15 +2108,15 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="40">
-        <v>0</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E46" s="24">
+        <v>0</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45245</v>
       </c>
@@ -1875,15 +2129,15 @@
       <c r="D47" s="2">
         <v>0</v>
       </c>
-      <c r="E47" s="40">
-        <v>0</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E47" s="24">
+        <v>0</v>
+      </c>
+      <c r="F47" s="21"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>45246</v>
       </c>
@@ -1896,15 +2150,15 @@
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="40">
-        <v>0</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="26"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E48" s="24">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>45247</v>
       </c>
@@ -1917,15 +2171,15 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="40">
-        <v>0</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="26"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E49" s="24">
+        <v>0</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>45248</v>
       </c>
@@ -1938,15 +2192,23 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="40">
-        <v>0</v>
-      </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="27"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E50" s="24">
+        <v>0</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>45249</v>
       </c>
@@ -1959,15 +2221,23 @@
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="40">
-        <v>0</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="27"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E51" s="24">
+        <v>0</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>45250</v>
       </c>
@@ -1980,15 +2250,23 @@
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="40">
-        <v>0</v>
-      </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="27"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E52" s="24">
+        <v>0</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>45251</v>
       </c>
@@ -2001,15 +2279,15 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="40">
-        <v>0</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="27"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E53" s="24">
+        <v>0</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>45252</v>
       </c>
@@ -2022,15 +2300,15 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="40">
-        <v>0</v>
-      </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="27"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E54" s="24">
+        <v>0</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>45253</v>
       </c>
@@ -2043,15 +2321,15 @@
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="40">
-        <v>0</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="27"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E55" s="24">
+        <v>0</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>45254</v>
       </c>
@@ -2064,15 +2342,15 @@
       <c r="D56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="40">
-        <v>0</v>
-      </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="26"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E56" s="24">
+        <v>0</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>45255</v>
       </c>
@@ -2085,15 +2363,15 @@
       <c r="D57" s="2">
         <v>0</v>
       </c>
-      <c r="E57" s="40">
-        <v>0</v>
-      </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="26"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E57" s="24">
+        <v>0</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>45256</v>
       </c>
@@ -2106,15 +2384,26 @@
       <c r="D58" s="2">
         <v>0</v>
       </c>
-      <c r="E58" s="41">
-        <v>1</v>
-      </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="26"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E58" s="25">
+        <v>1</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>45257</v>
       </c>
@@ -2127,15 +2416,26 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="41">
-        <v>1</v>
-      </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="27"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E59" s="25">
+        <v>1</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>45258</v>
       </c>
@@ -2148,15 +2448,26 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="41">
-        <v>1</v>
-      </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="27"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E60" s="25">
+        <v>1</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>45259</v>
       </c>
@@ -2169,15 +2480,15 @@
       <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="40">
-        <v>0</v>
-      </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="27"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E61" s="24">
+        <v>0</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>45260</v>
       </c>
@@ -2190,15 +2501,15 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="40">
-        <v>0</v>
-      </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E62" s="24">
+        <v>0</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="19"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>45261</v>
       </c>
@@ -2211,15 +2522,15 @@
       <c r="D63" s="2">
         <v>0</v>
       </c>
-      <c r="E63" s="40">
-        <v>0</v>
-      </c>
-      <c r="F63" s="35"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="27"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E63" s="24">
+        <v>0</v>
+      </c>
+      <c r="F63" s="21"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>45262</v>
       </c>
@@ -2232,15 +2543,15 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
-      <c r="E64" s="40">
-        <v>0</v>
-      </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="27"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E64" s="24">
+        <v>0</v>
+      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="19"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>45263</v>
       </c>
@@ -2253,15 +2564,26 @@
       <c r="D65" s="2">
         <v>0</v>
       </c>
-      <c r="E65" s="40">
-        <v>0</v>
-      </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="26"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E65" s="24">
+        <v>0</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>45264</v>
       </c>
@@ -2274,15 +2596,26 @@
       <c r="D66" s="2">
         <v>0</v>
       </c>
-      <c r="E66" s="40">
-        <v>0</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="26"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E66" s="24">
+        <v>0</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>45265</v>
       </c>
@@ -2295,15 +2628,23 @@
       <c r="D67" s="2">
         <v>0</v>
       </c>
-      <c r="E67" s="40">
-        <v>0</v>
-      </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="26"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E67" s="24">
+        <v>0</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>45266</v>
       </c>
@@ -2316,15 +2657,15 @@
       <c r="D68" s="2">
         <v>0</v>
       </c>
-      <c r="E68" s="40">
-        <v>0</v>
-      </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="27"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E68" s="24">
+        <v>0</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="19"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>45267</v>
       </c>
@@ -2337,15 +2678,15 @@
       <c r="D69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="40">
-        <v>0</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="27"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E69" s="24">
+        <v>0</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="19"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>45268</v>
       </c>
@@ -2358,15 +2699,15 @@
       <c r="D70" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="40">
-        <v>0</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="27"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E70" s="24">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="19"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>45269</v>
       </c>
@@ -2379,15 +2720,15 @@
       <c r="D71" s="2">
         <v>0</v>
       </c>
-      <c r="E71" s="40">
-        <v>0</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="27"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E71" s="24">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="19"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>45270</v>
       </c>
@@ -2400,15 +2741,15 @@
       <c r="D72" s="2">
         <v>0</v>
       </c>
-      <c r="E72" s="40">
-        <v>0</v>
-      </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E72" s="24">
+        <v>0</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="19"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>45271</v>
       </c>
@@ -2421,15 +2762,23 @@
       <c r="D73" s="2">
         <v>0</v>
       </c>
-      <c r="E73" s="40">
-        <v>0</v>
-      </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="27"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E73" s="24">
+        <v>0</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>45272</v>
       </c>
@@ -2442,15 +2791,23 @@
       <c r="D74" s="2">
         <v>0</v>
       </c>
-      <c r="E74" s="40">
-        <v>0</v>
-      </c>
-      <c r="F74" s="35"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="26"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E74" s="24">
+        <v>0</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45273</v>
       </c>
@@ -2463,15 +2820,23 @@
       <c r="D75" s="2">
         <v>0</v>
       </c>
-      <c r="E75" s="40">
-        <v>0</v>
-      </c>
-      <c r="F75" s="35"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="26"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E75" s="24">
+        <v>0</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45274</v>
       </c>
@@ -2484,15 +2849,15 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="40">
-        <v>0</v>
-      </c>
-      <c r="F76" s="35"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="26"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E76" s="24">
+        <v>0</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="19"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45275</v>
       </c>
@@ -2505,15 +2870,15 @@
       <c r="D77" s="2">
         <v>0</v>
       </c>
-      <c r="E77" s="40">
-        <v>0</v>
-      </c>
-      <c r="F77" s="35"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="27"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E77" s="24">
+        <v>0</v>
+      </c>
+      <c r="F77" s="21"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45276</v>
       </c>
@@ -2526,15 +2891,15 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="40">
-        <v>0</v>
-      </c>
-      <c r="F78" s="35"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="27"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E78" s="24">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="19"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45277</v>
       </c>
@@ -2547,15 +2912,15 @@
       <c r="D79" s="2">
         <v>0</v>
       </c>
-      <c r="E79" s="40">
-        <v>0</v>
-      </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="27"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E79" s="24">
+        <v>0</v>
+      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45278</v>
       </c>
@@ -2568,15 +2933,15 @@
       <c r="D80" s="2">
         <v>0</v>
       </c>
-      <c r="E80" s="40">
-        <v>0</v>
-      </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="27"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E80" s="24">
+        <v>0</v>
+      </c>
+      <c r="F80" s="21"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45279</v>
       </c>
@@ -2589,15 +2954,26 @@
       <c r="D81" s="1">
         <v>1</v>
       </c>
-      <c r="E81" s="40">
-        <v>0</v>
-      </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="27"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E81" s="24">
+        <v>0</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45280</v>
       </c>
@@ -2610,15 +2986,26 @@
       <c r="D82" s="1">
         <v>1</v>
       </c>
-      <c r="E82" s="40">
-        <v>0</v>
-      </c>
-      <c r="F82" s="35"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="27"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E82" s="24">
+        <v>0</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45281</v>
       </c>
@@ -2631,15 +3018,26 @@
       <c r="D83" s="1">
         <v>1</v>
       </c>
-      <c r="E83" s="40">
-        <v>0</v>
-      </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="26"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E83" s="24">
+        <v>0</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>45282</v>
       </c>
@@ -2652,15 +3050,15 @@
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="40">
-        <v>0</v>
-      </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="26"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E84" s="24">
+        <v>0</v>
+      </c>
+      <c r="F84" s="21"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="19"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>45283</v>
       </c>
@@ -2673,15 +3071,15 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="40">
-        <v>0</v>
-      </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="26"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E85" s="24">
+        <v>0</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="19"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>45284</v>
       </c>
@@ -2694,15 +3092,15 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="40">
-        <v>0</v>
-      </c>
-      <c r="F86" s="35"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="27"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E86" s="24">
+        <v>0</v>
+      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="19"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>45285</v>
       </c>
@@ -2715,15 +3113,15 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="40">
-        <v>0</v>
-      </c>
-      <c r="F87" s="35"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="27"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E87" s="24">
+        <v>0</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>45286</v>
       </c>
@@ -2736,15 +3134,15 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="40">
-        <v>0</v>
-      </c>
-      <c r="F88" s="35"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="27"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E88" s="24">
+        <v>0</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>45287</v>
       </c>
@@ -2757,15 +3155,23 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="41">
-        <v>1</v>
-      </c>
-      <c r="F89" s="35"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="27"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E89" s="25">
+        <v>1</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>45288</v>
       </c>
@@ -2778,15 +3184,23 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="41">
-        <v>1</v>
-      </c>
-      <c r="F90" s="35"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="27"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E90" s="25">
+        <v>1</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>45289</v>
       </c>
@@ -2799,15 +3213,26 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="41">
-        <v>1</v>
-      </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="27"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E91" s="25">
+        <v>1</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>45290</v>
       </c>
@@ -2820,15 +3245,15 @@
       <c r="D92" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="40">
-        <v>0</v>
-      </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="27"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E92" s="24">
+        <v>0</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>45291</v>
       </c>
@@ -2841,15 +3266,15 @@
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="40">
-        <v>0</v>
-      </c>
-      <c r="F93" s="35"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="27"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E93" s="24">
+        <v>0</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="19"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>45292</v>
       </c>
@@ -2862,15 +3287,15 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="40">
-        <v>0</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="27"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E94" s="24">
+        <v>0</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="19"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>45293</v>
       </c>
@@ -2883,15 +3308,15 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="40">
-        <v>0</v>
-      </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="27"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E95" s="24">
+        <v>0</v>
+      </c>
+      <c r="F95" s="21"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="19"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>45294</v>
       </c>
@@ -2904,15 +3329,15 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="40">
-        <v>0</v>
-      </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="27"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E96" s="24">
+        <v>0</v>
+      </c>
+      <c r="F96" s="21"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="19"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>45295</v>
       </c>
@@ -2925,15 +3350,23 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="40">
-        <v>0</v>
-      </c>
-      <c r="F97" s="35"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="27"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E97" s="24">
+        <v>0</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>45296</v>
       </c>
@@ -2946,15 +3379,23 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="40">
-        <v>0</v>
-      </c>
-      <c r="F98" s="35"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="27"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E98" s="24">
+        <v>0</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>45297</v>
       </c>
@@ -2967,15 +3408,23 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-      <c r="E99" s="40">
-        <v>0</v>
-      </c>
-      <c r="F99" s="35"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="27"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E99" s="24">
+        <v>0</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>45298</v>
       </c>
@@ -2988,15 +3437,15 @@
       <c r="D100" s="2">
         <v>0</v>
       </c>
-      <c r="E100" s="40">
-        <v>0</v>
-      </c>
-      <c r="F100" s="35"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="27"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E100" s="24">
+        <v>0</v>
+      </c>
+      <c r="F100" s="21"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="19"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>45299</v>
       </c>
@@ -3009,15 +3458,15 @@
       <c r="D101" s="2">
         <v>0</v>
       </c>
-      <c r="E101" s="40">
-        <v>0</v>
-      </c>
-      <c r="F101" s="35"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="27"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E101" s="24">
+        <v>0</v>
+      </c>
+      <c r="F101" s="21"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="19"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>45300</v>
       </c>
@@ -3030,15 +3479,15 @@
       <c r="D102" s="2">
         <v>0</v>
       </c>
-      <c r="E102" s="40">
-        <v>0</v>
-      </c>
-      <c r="F102" s="35"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="27"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E102" s="24">
+        <v>0</v>
+      </c>
+      <c r="F102" s="21"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="19"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>45301</v>
       </c>
@@ -3051,15 +3500,15 @@
       <c r="D103" s="2">
         <v>0</v>
       </c>
-      <c r="E103" s="40">
-        <v>0</v>
-      </c>
-      <c r="F103" s="35"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="27"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E103" s="24">
+        <v>0</v>
+      </c>
+      <c r="F103" s="21"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="19"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
         <v>45302</v>
       </c>
@@ -3072,15 +3521,15 @@
       <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="E104" s="40">
-        <v>0</v>
-      </c>
-      <c r="F104" s="35"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="27"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E104" s="24">
+        <v>0</v>
+      </c>
+      <c r="F104" s="21"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="19"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
         <v>45303</v>
       </c>
@@ -3093,15 +3542,26 @@
       <c r="D105" s="2">
         <v>0</v>
       </c>
-      <c r="E105" s="40">
-        <v>0</v>
-      </c>
-      <c r="F105" s="35"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="27"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E105" s="24">
+        <v>0</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
         <v>45304</v>
       </c>
@@ -3114,15 +3574,26 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="40">
-        <v>0</v>
-      </c>
-      <c r="F106" s="35"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="27"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E106" s="24">
+        <v>0</v>
+      </c>
+      <c r="F106" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
         <v>45305</v>
       </c>
@@ -3135,15 +3606,26 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="40">
-        <v>0</v>
-      </c>
-      <c r="F107" s="35"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="27"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E107" s="24">
+        <v>0</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
         <v>45306</v>
       </c>
@@ -3156,15 +3638,15 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="40">
-        <v>0</v>
-      </c>
-      <c r="F108" s="35"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="27"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E108" s="24">
+        <v>0</v>
+      </c>
+      <c r="F108" s="21"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
         <v>45307</v>
       </c>
@@ -3177,15 +3659,15 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="40">
-        <v>0</v>
-      </c>
-      <c r="F109" s="35"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="27"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E109" s="24">
+        <v>0</v>
+      </c>
+      <c r="F109" s="21"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="19"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
         <v>45308</v>
       </c>
@@ -3198,15 +3680,15 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="40">
-        <v>0</v>
-      </c>
-      <c r="F110" s="35"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="27"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E110" s="24">
+        <v>0</v>
+      </c>
+      <c r="F110" s="21"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
         <v>45309</v>
       </c>
@@ -3219,15 +3701,15 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="E111" s="40">
-        <v>0</v>
-      </c>
-      <c r="F111" s="35"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="27"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E111" s="24">
+        <v>0</v>
+      </c>
+      <c r="F111" s="21"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
         <v>45310</v>
       </c>
@@ -3240,15 +3722,15 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="40">
-        <v>0</v>
-      </c>
-      <c r="F112" s="35"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="27"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E112" s="24">
+        <v>0</v>
+      </c>
+      <c r="F112" s="21"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="19"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
         <v>45311</v>
       </c>
@@ -3261,15 +3743,26 @@
       <c r="D113" s="1">
         <v>1</v>
       </c>
-      <c r="E113" s="40">
-        <v>0</v>
-      </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="27"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E113" s="24">
+        <v>0</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
         <v>45312</v>
       </c>
@@ -3282,15 +3775,23 @@
       <c r="D114" s="1">
         <v>1</v>
       </c>
-      <c r="E114" s="40">
-        <v>0</v>
-      </c>
-      <c r="F114" s="35"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="27"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E114" s="24">
+        <v>0</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>45313</v>
       </c>
@@ -3303,15 +3804,23 @@
       <c r="D115" s="1">
         <v>1</v>
       </c>
-      <c r="E115" s="40">
-        <v>0</v>
-      </c>
-      <c r="F115" s="35"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="27"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E115" s="24">
+        <v>0</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>45314</v>
       </c>
@@ -3324,15 +3833,15 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="40">
-        <v>0</v>
-      </c>
-      <c r="F116" s="35"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="27"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E116" s="24">
+        <v>0</v>
+      </c>
+      <c r="F116" s="21"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="19"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
         <v>45315</v>
       </c>
@@ -3345,15 +3854,15 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-      <c r="E117" s="40">
-        <v>0</v>
-      </c>
-      <c r="F117" s="35"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="27"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E117" s="24">
+        <v>0</v>
+      </c>
+      <c r="F117" s="21"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="19"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>45316</v>
       </c>
@@ -3366,15 +3875,15 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="40">
-        <v>0</v>
-      </c>
-      <c r="F118" s="35"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="27"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E118" s="24">
+        <v>0</v>
+      </c>
+      <c r="F118" s="21"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="19"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
         <v>45317</v>
       </c>
@@ -3387,15 +3896,15 @@
       <c r="D119" s="2">
         <v>0</v>
       </c>
-      <c r="E119" s="40">
-        <v>0</v>
-      </c>
-      <c r="F119" s="35"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="27"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E119" s="24">
+        <v>0</v>
+      </c>
+      <c r="F119" s="21"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="19"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>45318</v>
       </c>
@@ -3408,19 +3917,19 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="40">
-        <v>0</v>
-      </c>
-      <c r="F120" s="36"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="27"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E120" s="24">
+        <v>0</v>
+      </c>
+      <c r="F120" s="22"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="19"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>45319</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="8">
         <v>0</v>
       </c>
       <c r="C121" s="2">
@@ -3430,18 +3939,29 @@
         <v>0</v>
       </c>
       <c r="E121" s="41">
-        <v>1</v>
-      </c>
-      <c r="F121" s="35"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="27"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
         <v>45320</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="8">
         <v>0</v>
       </c>
       <c r="C122" s="2">
@@ -3451,19 +3971,30 @@
         <v>0</v>
       </c>
       <c r="E122" s="41">
-        <v>1</v>
-      </c>
-      <c r="F122" s="35"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="27"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I122" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
         <v>45321</v>
       </c>
-      <c r="B123" s="9">
-        <v>0</v>
+      <c r="B123" s="8">
+        <v>1</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -3474,12 +4005,20 @@
       <c r="E123" s="41">
         <v>1</v>
       </c>
-      <c r="F123" s="35"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="27"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F123" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>45322</v>
       </c>
@@ -3492,15 +4031,15 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="40">
-        <v>0</v>
-      </c>
-      <c r="F124" s="35"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="27"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E124" s="24">
+        <v>0</v>
+      </c>
+      <c r="F124" s="21"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="19"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>45323</v>
       </c>
@@ -3513,15 +4052,15 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="40">
-        <v>0</v>
-      </c>
-      <c r="F125" s="35"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="27"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E125" s="24">
+        <v>0</v>
+      </c>
+      <c r="F125" s="21"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="19"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>45324</v>
       </c>
@@ -3534,15 +4073,15 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="40">
-        <v>0</v>
-      </c>
-      <c r="F126" s="35"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="27"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E126" s="24">
+        <v>0</v>
+      </c>
+      <c r="F126" s="21"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="19"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>45325</v>
       </c>
@@ -3555,15 +4094,15 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="40">
-        <v>0</v>
-      </c>
-      <c r="F127" s="35"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="27"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E127" s="24">
+        <v>0</v>
+      </c>
+      <c r="F127" s="21"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="19"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
         <v>45326</v>
       </c>
@@ -3576,15 +4115,15 @@
       <c r="D128" s="2">
         <v>0</v>
       </c>
-      <c r="E128" s="40">
-        <v>0</v>
-      </c>
-      <c r="F128" s="35"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="27"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E128" s="24">
+        <v>0</v>
+      </c>
+      <c r="F128" s="21"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="19"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
         <v>45327</v>
       </c>
@@ -3597,15 +4136,23 @@
       <c r="D129" s="2">
         <v>0</v>
       </c>
-      <c r="E129" s="40">
-        <v>0</v>
-      </c>
-      <c r="F129" s="35"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="27"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E129" s="24">
+        <v>0</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I129" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
         <v>45328</v>
       </c>
@@ -3618,15 +4165,23 @@
       <c r="D130" s="2">
         <v>0</v>
       </c>
-      <c r="E130" s="40">
-        <v>0</v>
-      </c>
-      <c r="F130" s="35"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="27"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E130" s="24">
+        <v>0</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I130" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
         <v>45329</v>
       </c>
@@ -3639,15 +4194,23 @@
       <c r="D131" s="2">
         <v>0</v>
       </c>
-      <c r="E131" s="40">
-        <v>0</v>
-      </c>
-      <c r="F131" s="35"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="27"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E131" s="24">
+        <v>0</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I131" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
         <v>45330</v>
       </c>
@@ -3660,15 +4223,15 @@
       <c r="D132" s="2">
         <v>0</v>
       </c>
-      <c r="E132" s="40">
-        <v>0</v>
-      </c>
-      <c r="F132" s="35"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="27"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E132" s="24">
+        <v>0</v>
+      </c>
+      <c r="F132" s="21"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="19"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>45331</v>
       </c>
@@ -3681,15 +4244,15 @@
       <c r="D133" s="2">
         <v>0</v>
       </c>
-      <c r="E133" s="40">
-        <v>0</v>
-      </c>
-      <c r="F133" s="35"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="27"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E133" s="24">
+        <v>0</v>
+      </c>
+      <c r="F133" s="21"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="19"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
         <v>45332</v>
       </c>
@@ -3702,15 +4265,15 @@
       <c r="D134" s="2">
         <v>0</v>
       </c>
-      <c r="E134" s="40">
-        <v>0</v>
-      </c>
-      <c r="F134" s="35"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="27"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E134" s="24">
+        <v>0</v>
+      </c>
+      <c r="F134" s="21"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="19"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
         <v>45333</v>
       </c>
@@ -3723,15 +4286,15 @@
       <c r="D135" s="2">
         <v>0</v>
       </c>
-      <c r="E135" s="40">
-        <v>0</v>
-      </c>
-      <c r="F135" s="35"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="27"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E135" s="24">
+        <v>0</v>
+      </c>
+      <c r="F135" s="21"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="19"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
         <v>45334</v>
       </c>
@@ -3744,15 +4307,15 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-      <c r="E136" s="40">
-        <v>0</v>
-      </c>
-      <c r="F136" s="35"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="27"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E136" s="24">
+        <v>0</v>
+      </c>
+      <c r="F136" s="21"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="19"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
         <v>45335</v>
       </c>
@@ -3765,15 +4328,26 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-      <c r="E137" s="40">
-        <v>0</v>
-      </c>
-      <c r="F137" s="35"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="24"/>
-      <c r="I137" s="27"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E137" s="24">
+        <v>0</v>
+      </c>
+      <c r="F137" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>45336</v>
       </c>
@@ -3786,15 +4360,23 @@
       <c r="D138" s="2">
         <v>0</v>
       </c>
-      <c r="E138" s="40">
-        <v>0</v>
-      </c>
-      <c r="F138" s="36"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="27"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E138" s="24">
+        <v>0</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I138" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
         <v>45337</v>
       </c>
@@ -3807,15 +4389,23 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="E139" s="40">
-        <v>0</v>
-      </c>
-      <c r="F139" s="35"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="27"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E139" s="24">
+        <v>0</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
         <v>45338</v>
       </c>
@@ -3828,20 +4418,20 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="40">
-        <v>0</v>
-      </c>
-      <c r="F140" s="35"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-      <c r="I140" s="27"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E140" s="24">
+        <v>0</v>
+      </c>
+      <c r="F140" s="21"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="19"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
         <v>45339</v>
       </c>
-      <c r="B141" s="9">
-        <v>0</v>
+      <c r="B141" s="1">
+        <v>1</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -3849,15 +4439,23 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="E141" s="40">
-        <v>0</v>
-      </c>
-      <c r="F141" s="35"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="23"/>
-      <c r="I141" s="27"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E141" s="24">
+        <v>0</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I141" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>45340</v>
       </c>
@@ -3870,15 +4468,15 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="40">
-        <v>0</v>
-      </c>
-      <c r="F142" s="35"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="24"/>
-      <c r="I142" s="27"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E142" s="24">
+        <v>0</v>
+      </c>
+      <c r="F142" s="21"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="19"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
         <v>45341</v>
       </c>
@@ -3891,15 +4489,15 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="40">
-        <v>0</v>
-      </c>
-      <c r="F143" s="35"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="27"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E143" s="24">
+        <v>0</v>
+      </c>
+      <c r="F143" s="21"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="19"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
         <v>45342</v>
       </c>
@@ -3912,13 +4510,13 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="40">
-        <v>0</v>
-      </c>
-      <c r="F144" s="35"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="24"/>
-      <c r="I144" s="27"/>
+      <c r="E144" s="24">
+        <v>0</v>
+      </c>
+      <c r="F144" s="21"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
@@ -3933,13 +4531,24 @@
       <c r="D145" s="1">
         <v>1</v>
       </c>
-      <c r="E145" s="40">
-        <v>0</v>
-      </c>
-      <c r="F145" s="35"/>
-      <c r="G145" s="23"/>
-      <c r="H145" s="23"/>
-      <c r="I145" s="27"/>
+      <c r="E145" s="24">
+        <v>0</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I145" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
@@ -3954,13 +4563,24 @@
       <c r="D146" s="1">
         <v>1</v>
       </c>
-      <c r="E146" s="40">
-        <v>0</v>
-      </c>
-      <c r="F146" s="35"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="24"/>
-      <c r="I146" s="27"/>
+      <c r="E146" s="24">
+        <v>0</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I146" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
@@ -3975,15 +4595,21 @@
       <c r="D147" s="1">
         <v>1</v>
       </c>
-      <c r="E147" s="40">
-        <v>0</v>
-      </c>
-      <c r="F147" s="36"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24"/>
-      <c r="I147" s="27"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
+      <c r="E147" s="24">
+        <v>0</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I147" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="148" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
@@ -3998,15 +4624,13 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="40">
-        <v>0</v>
-      </c>
-      <c r="F148" s="36"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="27"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
+      <c r="E148" s="24">
+        <v>0</v>
+      </c>
+      <c r="F148" s="22"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="19"/>
     </row>
     <row r="149" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
@@ -4021,17 +4645,17 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="40">
-        <v>0</v>
-      </c>
-      <c r="F149" s="35"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="27"/>
-      <c r="K149" s="12" t="s">
+      <c r="E149" s="24">
+        <v>0</v>
+      </c>
+      <c r="F149" s="21"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="19"/>
+      <c r="K149" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L149" s="13">
+      <c r="L149" s="29">
         <f>COUNTIF(F1:F152,"None")</f>
         <v>0</v>
       </c>
@@ -4049,19 +4673,19 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="40">
-        <v>0</v>
-      </c>
-      <c r="F150" s="35"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="28"/>
-      <c r="K150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L150" s="13">
-        <f>COUNTIF(F2:F153,"Arevalo")</f>
-        <v>0</v>
+      <c r="E150" s="24">
+        <v>0</v>
+      </c>
+      <c r="F150" s="21"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="19"/>
+      <c r="K150" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" s="29">
+        <f>COUNTIF(F2:F184,"Caceres")</f>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4077,19 +4701,19 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="40">
-        <v>0</v>
-      </c>
-      <c r="F151" s="35"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="28"/>
-      <c r="K151" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L151" s="15">
-        <f>COUNTIF(F2:F153,"Leiva")</f>
-        <v>0</v>
+      <c r="E151" s="24">
+        <v>0</v>
+      </c>
+      <c r="F151" s="21"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="19"/>
+      <c r="K151" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L151" s="30">
+        <f>COUNTIF(F2:F184,"Pignata")</f>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4105,17 +4729,16 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="40">
-        <v>0</v>
-      </c>
-      <c r="F152" s="35"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="24"/>
-      <c r="I152" s="28"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="16">
+      <c r="E152" s="24">
+        <v>0</v>
+      </c>
+      <c r="F152" s="21"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="19"/>
+      <c r="L152" s="31">
         <f>SUM(L149:L151)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -4131,14 +4754,21 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="41">
-        <v>1</v>
-      </c>
-      <c r="F153" s="35"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="28"/>
-      <c r="K153" s="10"/>
+      <c r="E153" s="25">
+        <v>1</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I153" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
@@ -4153,16 +4783,21 @@
       <c r="D154" s="2">
         <v>0</v>
       </c>
-      <c r="E154" s="41">
-        <v>1</v>
-      </c>
-      <c r="F154" s="35"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
+      <c r="E154" s="25">
+        <v>1</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I154" s="43" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
@@ -4177,16 +4812,21 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-      <c r="E155" s="41">
-        <v>1</v>
-      </c>
-      <c r="F155" s="35"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="23"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
-      <c r="L155" s="10"/>
+      <c r="E155" s="25">
+        <v>1</v>
+      </c>
+      <c r="F155" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I155" s="43" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
@@ -4201,23 +4841,20 @@
       <c r="D156" s="2">
         <v>0</v>
       </c>
-      <c r="E156" s="40">
-        <v>0</v>
-      </c>
-      <c r="F156" s="35"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
+      <c r="E156" s="24">
+        <v>0</v>
+      </c>
+      <c r="F156" s="21"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="19"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
         <v>45355</v>
       </c>
-      <c r="B157" s="9">
-        <v>0</v>
+      <c r="B157" s="1">
+        <v>1</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -4225,14 +4862,24 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-      <c r="E157" s="40">
-        <v>0</v>
-      </c>
-      <c r="F157" s="35"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="10"/>
+      <c r="E157" s="24">
+        <v>0</v>
+      </c>
+      <c r="F157" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I157" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J157" s="42" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
@@ -4247,14 +4894,13 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="E158" s="40">
-        <v>0</v>
-      </c>
-      <c r="F158" s="35"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="10"/>
+      <c r="E158" s="24">
+        <v>0</v>
+      </c>
+      <c r="F158" s="21"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="19"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
@@ -4269,14 +4915,13 @@
       <c r="D159" s="2">
         <v>0</v>
       </c>
-      <c r="E159" s="40">
-        <v>0</v>
-      </c>
-      <c r="F159" s="35"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="10"/>
+      <c r="E159" s="24">
+        <v>0</v>
+      </c>
+      <c r="F159" s="21"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="19"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
@@ -4291,16 +4936,15 @@
       <c r="D160" s="2">
         <v>0</v>
       </c>
-      <c r="E160" s="40">
-        <v>0</v>
-      </c>
-      <c r="F160" s="35"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="10"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E160" s="24">
+        <v>0</v>
+      </c>
+      <c r="F160" s="21"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="19"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
         <v>45359</v>
       </c>
@@ -4313,16 +4957,23 @@
       <c r="D161" s="2">
         <v>0</v>
       </c>
-      <c r="E161" s="40">
-        <v>0</v>
-      </c>
-      <c r="F161" s="35"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="10"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E161" s="24">
+        <v>0</v>
+      </c>
+      <c r="F161" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I161" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
         <v>45360</v>
       </c>
@@ -4335,16 +4986,23 @@
       <c r="D162" s="2">
         <v>0</v>
       </c>
-      <c r="E162" s="40">
-        <v>0</v>
-      </c>
-      <c r="F162" s="35"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="23"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="10"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E162" s="24">
+        <v>0</v>
+      </c>
+      <c r="F162" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>45361</v>
       </c>
@@ -4357,16 +5015,15 @@
       <c r="D163" s="2">
         <v>0</v>
       </c>
-      <c r="E163" s="40">
-        <v>0</v>
-      </c>
-      <c r="F163" s="35"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="10"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E163" s="24">
+        <v>0</v>
+      </c>
+      <c r="F163" s="21"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="19"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
         <v>45362</v>
       </c>
@@ -4379,16 +5036,15 @@
       <c r="D164" s="2">
         <v>0</v>
       </c>
-      <c r="E164" s="40">
-        <v>0</v>
-      </c>
-      <c r="F164" s="35"/>
-      <c r="G164" s="23"/>
-      <c r="H164" s="23"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="10"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E164" s="24">
+        <v>0</v>
+      </c>
+      <c r="F164" s="21"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="19"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>45363</v>
       </c>
@@ -4401,16 +5057,15 @@
       <c r="D165" s="2">
         <v>0</v>
       </c>
-      <c r="E165" s="40">
-        <v>0</v>
-      </c>
-      <c r="F165" s="35"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="10"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E165" s="24">
+        <v>0</v>
+      </c>
+      <c r="F165" s="21"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="19"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
         <v>45364</v>
       </c>
@@ -4423,16 +5078,15 @@
       <c r="D166" s="2">
         <v>0</v>
       </c>
-      <c r="E166" s="40">
-        <v>0</v>
-      </c>
-      <c r="F166" s="35"/>
-      <c r="G166" s="23"/>
-      <c r="H166" s="23"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="10"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E166" s="24">
+        <v>0</v>
+      </c>
+      <c r="F166" s="21"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="19"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>45365</v>
       </c>
@@ -4445,16 +5099,15 @@
       <c r="D167" s="2">
         <v>0</v>
       </c>
-      <c r="E167" s="40">
-        <v>0</v>
-      </c>
-      <c r="F167" s="35"/>
-      <c r="G167" s="23"/>
-      <c r="H167" s="23"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="10"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E167" s="24">
+        <v>0</v>
+      </c>
+      <c r="F167" s="21"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="19"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
         <v>45366</v>
       </c>
@@ -4467,16 +5120,15 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-      <c r="E168" s="40">
-        <v>0</v>
-      </c>
-      <c r="F168" s="35"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="23"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="10"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E168" s="24">
+        <v>0</v>
+      </c>
+      <c r="F168" s="21"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="19"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
         <v>45367</v>
       </c>
@@ -4489,16 +5141,23 @@
       <c r="D169" s="2">
         <v>0</v>
       </c>
-      <c r="E169" s="40">
-        <v>0</v>
-      </c>
-      <c r="F169" s="35"/>
-      <c r="G169" s="23"/>
-      <c r="H169" s="23"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="10"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E169" s="24">
+        <v>0</v>
+      </c>
+      <c r="F169" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>45368</v>
       </c>
@@ -4511,16 +5170,23 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="E170" s="40">
-        <v>0</v>
-      </c>
-      <c r="F170" s="35"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="23"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="10"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E170" s="24">
+        <v>0</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I170" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
         <v>45369</v>
       </c>
@@ -4533,16 +5199,15 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="E171" s="40">
-        <v>0</v>
-      </c>
-      <c r="F171" s="35"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="23"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="10"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E171" s="24">
+        <v>0</v>
+      </c>
+      <c r="F171" s="21"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="19"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>45370</v>
       </c>
@@ -4555,16 +5220,15 @@
       <c r="D172" s="2">
         <v>0</v>
       </c>
-      <c r="E172" s="40">
-        <v>0</v>
-      </c>
-      <c r="F172" s="35"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="23"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="10"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E172" s="24">
+        <v>0</v>
+      </c>
+      <c r="F172" s="21"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="19"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>45371</v>
       </c>
@@ -4577,38 +5241,44 @@
       <c r="D173" s="2">
         <v>0</v>
       </c>
-      <c r="E173" s="40">
-        <v>0</v>
-      </c>
-      <c r="F173" s="35"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="23"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="10"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E173" s="24">
+        <v>0</v>
+      </c>
+      <c r="F173" s="21"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="19"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>45372</v>
       </c>
       <c r="B174" s="9">
         <v>0</v>
       </c>
-      <c r="C174" s="2">
-        <v>0</v>
+      <c r="C174" s="1">
+        <v>1</v>
       </c>
       <c r="D174" s="2">
         <v>0</v>
       </c>
-      <c r="E174" s="40">
-        <v>0</v>
-      </c>
-      <c r="F174" s="35"/>
-      <c r="G174" s="23"/>
-      <c r="H174" s="23"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="10"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E174" s="24">
+        <v>0</v>
+      </c>
+      <c r="F174" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>45373</v>
       </c>
@@ -4621,16 +5291,15 @@
       <c r="D175" s="2">
         <v>0</v>
       </c>
-      <c r="E175" s="40">
-        <v>0</v>
-      </c>
-      <c r="F175" s="37"/>
-      <c r="G175" s="22"/>
-      <c r="H175" s="22"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="10"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E175" s="24">
+        <v>0</v>
+      </c>
+      <c r="F175" s="21"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="19"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>45374</v>
       </c>
@@ -4643,16 +5312,15 @@
       <c r="D176" s="2">
         <v>0</v>
       </c>
-      <c r="E176" s="40">
-        <v>0</v>
-      </c>
-      <c r="F176" s="37"/>
-      <c r="G176" s="22"/>
-      <c r="H176" s="22"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="10"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E176" s="24">
+        <v>0</v>
+      </c>
+      <c r="F176" s="21"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="19"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>45375</v>
       </c>
@@ -4665,16 +5333,23 @@
       <c r="D177" s="1">
         <v>1</v>
       </c>
-      <c r="E177" s="40">
-        <v>0</v>
-      </c>
-      <c r="F177" s="37"/>
-      <c r="G177" s="22"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="10"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E177" s="24">
+        <v>0</v>
+      </c>
+      <c r="F177" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G177" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I177" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
         <v>45376</v>
       </c>
@@ -4687,16 +5362,23 @@
       <c r="D178" s="1">
         <v>1</v>
       </c>
-      <c r="E178" s="40">
-        <v>0</v>
-      </c>
-      <c r="F178" s="37"/>
-      <c r="G178" s="22"/>
-      <c r="H178" s="22"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="10"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E178" s="24">
+        <v>0</v>
+      </c>
+      <c r="F178" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I178" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
         <v>45377</v>
       </c>
@@ -4709,16 +5391,15 @@
       <c r="D179" s="2">
         <v>0</v>
       </c>
-      <c r="E179" s="40">
-        <v>0</v>
-      </c>
-      <c r="F179" s="37"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="22"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="10"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E179" s="24">
+        <v>0</v>
+      </c>
+      <c r="F179" s="21"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="19"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
         <v>45378</v>
       </c>
@@ -4731,16 +5412,15 @@
       <c r="D180" s="2">
         <v>0</v>
       </c>
-      <c r="E180" s="40">
-        <v>0</v>
-      </c>
-      <c r="F180" s="37"/>
-      <c r="G180" s="22"/>
-      <c r="H180" s="22"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="10"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E180" s="24">
+        <v>0</v>
+      </c>
+      <c r="F180" s="21"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="19"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>45379</v>
       </c>
@@ -4753,16 +5433,15 @@
       <c r="D181" s="2">
         <v>0</v>
       </c>
-      <c r="E181" s="40">
-        <v>0</v>
-      </c>
-      <c r="F181" s="37"/>
-      <c r="G181" s="22"/>
-      <c r="H181" s="22"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="10"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E181" s="24">
+        <v>0</v>
+      </c>
+      <c r="F181" s="21"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="19"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
         <v>45380</v>
       </c>
@@ -4775,16 +5454,15 @@
       <c r="D182" s="2">
         <v>0</v>
       </c>
-      <c r="E182" s="40">
-        <v>0</v>
-      </c>
-      <c r="F182" s="37"/>
-      <c r="G182" s="22"/>
-      <c r="H182" s="22"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="10"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E182" s="24">
+        <v>0</v>
+      </c>
+      <c r="F182" s="21"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="19"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
         <v>45381</v>
       </c>
@@ -4797,313 +5475,223 @@
       <c r="D183" s="2">
         <v>0</v>
       </c>
-      <c r="E183" s="40">
-        <v>0</v>
-      </c>
-      <c r="F183" s="37"/>
-      <c r="G183" s="22"/>
-      <c r="H183" s="22"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="10"/>
-    </row>
-    <row r="184" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="21">
+      <c r="E183" s="24">
+        <v>0</v>
+      </c>
+      <c r="F183" s="21"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="19"/>
+    </row>
+    <row r="184" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="16">
         <v>45382</v>
       </c>
-      <c r="B184" s="29">
-        <v>0</v>
-      </c>
-      <c r="C184" s="30">
-        <v>0</v>
-      </c>
-      <c r="D184" s="30">
-        <v>0</v>
-      </c>
-      <c r="E184" s="42">
-        <v>0</v>
-      </c>
-      <c r="F184" s="38"/>
-      <c r="G184" s="31"/>
-      <c r="H184" s="31"/>
-      <c r="I184" s="32"/>
-      <c r="J184" s="10"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="B184" s="20">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="24">
+        <v>0</v>
+      </c>
+      <c r="F184" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I184" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="33">
         <f>SUM(B2:B184)</f>
-        <v>17</v>
-      </c>
-      <c r="C185">
+        <v>23</v>
+      </c>
+      <c r="C185" s="33">
         <f t="shared" ref="C185:E185" si="0">SUM(C2:C184)</f>
-        <v>17</v>
-      </c>
-      <c r="D185">
+        <v>19</v>
+      </c>
+      <c r="D185" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="33">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F185" s="4">
+        <v>10</v>
+      </c>
+      <c r="F185" s="34">
         <f>SUM(B185:E185)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E186" s="10"/>
+      <c r="I185">
+        <f>COUNTIF(I1:I184,"True")</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E187" s="10"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
-      <c r="I187" s="10"/>
-      <c r="J187" s="10"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E188" s="10"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E189" s="10"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="10"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E190" s="10"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E191" s="10"/>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
-      <c r="H191" s="11"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E192" s="10"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
-      <c r="H192" s="11"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-    </row>
-    <row r="193" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E193" s="10"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
-    </row>
-    <row r="194" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E194" s="10"/>
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-    </row>
-    <row r="195" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E195" s="10"/>
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-    </row>
-    <row r="196" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E196" s="10"/>
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
-    </row>
-    <row r="197" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E197" s="10"/>
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
-    </row>
-    <row r="198" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E198" s="10"/>
+    </row>
+    <row r="198" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-    </row>
-    <row r="199" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E199" s="10"/>
+    </row>
+    <row r="199" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
-    </row>
-    <row r="200" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E200" s="10"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
-    </row>
-    <row r="201" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E201" s="10"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-    </row>
-    <row r="202" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E202" s="10"/>
+    </row>
+    <row r="200" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+    </row>
+    <row r="201" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+    </row>
+    <row r="202" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
-    </row>
-    <row r="203" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E203" s="10"/>
+    </row>
+    <row r="203" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-    </row>
-    <row r="204" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E204" s="10"/>
+    </row>
+    <row r="204" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-    </row>
-    <row r="205" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E205" s="10"/>
+    </row>
+    <row r="205" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
-    </row>
-    <row r="206" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E206" s="10"/>
+    </row>
+    <row r="206" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
-    </row>
-    <row r="207" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E207" s="10"/>
+    </row>
+    <row r="207" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
-      <c r="I207" s="10"/>
-      <c r="J207" s="10"/>
-    </row>
-    <row r="208" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E208" s="10"/>
+    </row>
+    <row r="208" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
-    </row>
-    <row r="209" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E209" s="10"/>
+    </row>
+    <row r="209" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F209" s="4"/>
-      <c r="G209" s="11"/>
-      <c r="H209" s="11"/>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-    </row>
-    <row r="210" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E210" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
+    </row>
+    <row r="210" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F210" s="4"/>
-      <c r="G210" s="11"/>
-      <c r="H210" s="11"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-    </row>
-    <row r="211" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E211" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+    </row>
+    <row r="211" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-    </row>
-    <row r="212" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E212" s="10"/>
+    </row>
+    <row r="212" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-    </row>
-    <row r="213" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E213" s="10"/>
+    </row>
+    <row r="213" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
-      <c r="I213" s="10"/>
-      <c r="J213" s="10"/>
-    </row>
-    <row r="214" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E214" s="10"/>
+    </row>
+    <row r="214" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
-    </row>
-    <row r="215" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E215" s="10"/>
+    </row>
+    <row r="215" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-    </row>
-    <row r="216" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
